--- a/WORKSPACE MURUGAN/selenium reference.xlsx
+++ b/WORKSPACE MURUGAN/selenium reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mu307892\Documents\GitHub\GitHub\WORKSPACE MURUGAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29BE078D-AE99-416C-B19A-FA90DA436812}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8D575676-02EA-41FF-8DEA-8FE872E7A02A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8835" tabRatio="943" firstSheet="4" activeTab="8" xr2:uid="{133C5E9F-6BCD-4F68-A2DE-A6F7D4DC11E7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8835" tabRatio="943" firstSheet="4" activeTab="10" xr2:uid="{133C5E9F-6BCD-4F68-A2DE-A6F7D4DC11E7}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="Cucumber (BDD)" sheetId="13" r:id="rId9"/>
     <sheet name="Java - concepts " sheetId="10" r:id="rId10"/>
     <sheet name="Custom &amp; default Xpath- Simple" sheetId="5" r:id="rId11"/>
-    <sheet name="Junit" sheetId="11" r:id="rId12"/>
+    <sheet name="REST ASSURED" sheetId="18" r:id="rId12"/>
+    <sheet name="Junit" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="635">
   <si>
     <t>import org.openqa.selenium.Alert;</t>
   </si>
@@ -1842,19 +1843,6 @@
     <t>Parameterization or Data driven</t>
   </si>
   <si>
-    <t>Data Table</t>
-  </si>
-  <si>
-    <t>Will be used only for a particular step definiton using LIST object</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Parameterization can be done using the ASMAP object. This will
-help to understand which "value" is mapped with which field in "app"</t>
-  </si>
-  <si>
     <t>If we have built script on a particular version howeever new version is released , then just update the version in POM.xml it will build it accordingly else we have to remove all external previous version JAR files and we have to include new version again.
 Just go to mavrepository and copy the dependecy file..thats enough
 IT generate build for tester</t>
@@ -2046,30 +2034,6 @@
 Selenium dependency
 TestNG dependecy
 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">TDD framework - Test Driven Development
-DEsign test case in systematic way.
-data provider - Multiple set of date could be provided
-generate HTML report
-different annotations
-Define priority / sequence of test case execution 
-define dependecy of test case 
-grouping the test case 
-Grouping the classes
-</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3228,16 +3192,7 @@
     <t>Glue CODE (Step definition)</t>
   </si>
   <si>
-    <t>BackGround</t>
-  </si>
-  <si>
-    <t>This key word is used just like @ before</t>
-  </si>
-  <si>
     <t>Hooks</t>
-  </si>
-  <si>
-    <t>??</t>
   </si>
   <si>
     <t>Cucumber with JVM
@@ -3606,7 +3561,77 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Option 1:  Using Regular expresion 
+      <t xml:space="preserve">Option 1:  Directly providing the data for execution
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>step:1 
+in feature file provide the 'data' to be used in the test 
+e.g: Then user entersusername and password
+step:2
+e'g:
+@Then (^user enters username and password) 
+public void user_enters_username_and_password()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+driver,findelement(By.name("username")).sendkeys(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>murugan</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>);
+driver,findelement(By.name("password")).sendkeys</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(test@123</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>);
+Option 2:  Using Regular expresion 
 (means without examples key word)</t>
     </r>
     <r>
@@ -3861,7 +3886,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-Option 2: Using Examples &amp; Scenario outline (Parameterization for multiple records)
+Option 3: Using Examples &amp; Scenario outline (Parameterization for multiple records)
 </t>
     </r>
     <r>
@@ -4222,15 +4247,727 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
+Option 4: using DATA TABLE
+step:1 
 </t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Feature:
+Scenario Outline:
+Given
+When
+Then user enters username and password</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>| murugan| |test@123|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+step:2
+e'g:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">@Then (^user enters username and password $") </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>public void user_enters_username_and_password(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Datatable logincredential)
+list&lt;list&gt;&lt;String&gt; data = logincredential.raw();</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>driver,findelement(By.name("username")).sendkeys(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>data.get(0).get(0)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>driver,findelement(By.name("password")).sendkeys(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>data.get(0).get(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Option 5: using MAPS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+step:1 
+Feature:
+Scenario Outline:
+Given
+When
+Then user enters username and password
+|username| |password|
+| murugan|  |test@123|
+step:2
+e'g:
+@Then (^user enters username and password $") 
+public void user_enters_username_and_password(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Datatable logincredential</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or (Map&lt;String,String&gt; data: logincredential.asMaps(String.class,String.class))</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>{
+driver,findelement(By.name("username")).sendkeys.(data.get("</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"));
+driver,findelement(By.name("password")).sendkeys(data.get("</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"));</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Table:
+1.Will be used only for a particular step definiton using LIST object
+2.We are not passing the headesr and it will be confusing wht data is mapped with which field in application under test</t>
+  </si>
+  <si>
+    <t>Map:
+1.Parameterization can be done using the ASMAP object. This will
+help to understand which "value" is mapped with which field in application under test
+2.Header will be passed so that we can understad the mapping with data &amp; respective fileds in Application under test.</t>
+  </si>
+  <si>
+    <t>BackGround:This key word is used just like @ before</t>
+  </si>
+  <si>
+    <t>TAGGING</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tags:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">we can create our own taging like 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e.g:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @smoketest,@Regressiontest,@E2Etest.
+This will help in executing test case based on tagging.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Step:1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+In feature file add tags for the test cases
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Step:2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+in TestRunner add cucumberoptions tag=@smoketest
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>step:3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Run the test runnerfile.
+All testcase mentioned with tag @smoke test will be executed and other test case will not be executed.
+if we have to execute either of one then use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OR:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+OR: tags = {@smoketest,@regressiontest}
+If we have to execute test case with 2 different tags, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i.e:AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+AND tags = {"@smoketest","@regressiontest"}
+if we have to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>exclude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tags then:
+exclude tags = {"-@smoketest","@regressiontest"}</t>
+    </r>
+  </si>
+  <si>
+    <t>HOOKS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Types: Tagged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> hooks and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Global</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> hooks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Global hooks:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Applicable for all scenarios in a feature file and respective stepdefinition file
+This helps writing repetative steps again and again. E.g: initating browser and closing browser for each scenario.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TaggedHooks:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Applicable for only for that specific scneario in feature file and respective stepdefinition file
+Generally Hooks are written like
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>@Before</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+(preconditions like opening browser, maximising,clear cache etc)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>@After</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+(clsoing the browser after scenario execution)</t>
+    </r>
+  </si>
+  <si>
+    <t>200 OK</t>
+  </si>
+  <si>
+    <t>201 Created</t>
+  </si>
+  <si>
+    <t>204 No Content</t>
+  </si>
+  <si>
+    <t>304 Not Modified</t>
+  </si>
+  <si>
+    <t>400 Bad Request</t>
+  </si>
+  <si>
+    <t>401 Unauthorized</t>
+  </si>
+  <si>
+    <t>403 Forbidden</t>
+  </si>
+  <si>
+    <t>404 Not Found</t>
+  </si>
+  <si>
+    <t>500 Internal Server Error</t>
+  </si>
+  <si>
+    <t>Code class</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>1xx</t>
+  </si>
+  <si>
+    <t>Informational</t>
+  </si>
+  <si>
+    <t>2xx</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>3xx</t>
+  </si>
+  <si>
+    <t>Redirection</t>
+  </si>
+  <si>
+    <t>4xx</t>
+  </si>
+  <si>
+    <t>Client error</t>
+  </si>
+  <si>
+    <t>5xx</t>
+  </si>
+  <si>
+    <t>Server error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @cacheloopkup (speed of the framework is improved, instead data loading from page, it will get data for a particular element is retrieved from cache memory. However if the page is refreshed then it will lose the memory &amp; some )</t>
+  </si>
+  <si>
+    <t>this is used to generate selenium logs with the help of webdrviereventlistener</t>
+  </si>
+  <si>
+    <t>Using Param annotation</t>
+  </si>
+  <si>
+    <t>Using @ Dataprovider annotation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestingNewGeneration framework
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TDD framework - Test Driven Development
+DEsign test case in systematic way.
+data provider - Multiple set of date could be provided
+generate HTML report
+different annotations
+Define priority / sequence of test case execution 
+define dependecy of test case 
+grouping the test case 
+Grouping the classes
+</t>
+    </r>
+  </si>
+  <si>
+    <t>What is selenium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium is for Web application only
+Thoughtworks takes care for releaseing updated version of selenium
+Record &amp; Play - Selenium IDE
+Selenium RC - depreciated (discontinued)
+Selenium Web Driver -  3.x
+</t>
+  </si>
+  <si>
+    <t>How to launch safari browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download and enable safari extension for selenium
+Need to enable "Allow remote automation" available in the developers tab </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4375,8 +5112,33 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA0A0A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFA0A0A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4485,6 +5247,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -4527,7 +5307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4569,31 +5349,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4643,11 +5398,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4690,12 +5440,6 @@
     <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4707,6 +5451,67 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4925,7 +5730,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6096000" y="1247775"/>
+          <a:off x="6096000" y="1400175"/>
           <a:ext cx="1767214" cy="600077"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4970,7 +5775,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>638175</xdr:rowOff>
         </xdr:from>
@@ -4978,7 +5783,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>1133475</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>1123950</xdr:rowOff>
+          <xdr:rowOff>1181100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5241,10 +6046,10 @@
       <xdr:rowOff>219029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1227667</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>154518</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1974852</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5277,6 +6082,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>243416</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1111250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1500249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="243416" y="2751667"/>
+          <a:ext cx="2529417" cy="2092915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5288,13 +6137,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1057275</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>38</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>2171700</xdr:colOff>
-          <xdr:row>50</xdr:row>
+          <xdr:row>47</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5400,14 +6249,14 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:row>40</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1695450</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>1</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5455,14 +6304,14 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>2295525</xdr:colOff>
-          <xdr:row>47</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>2895600</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>1064558</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5806,8 +6655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B80D94D-7740-4806-A924-1DB3F08BD57C}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6001,31 +6850,31 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -6048,7 +6897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EE086A-5E30-4101-94F0-4A47E4ADDC87}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -6239,10 +7088,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE05448-319A-45C5-8059-1FD4578A7CFE}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.28515625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6328,262 +7177,260 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="84" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="84" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+    <row r="16" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="84" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+    <row r="19" spans="1:4" ht="84" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="108" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="108" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="144" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="74" t="s">
         <v>127</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -6595,7 +7442,7 @@
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="68"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>130</v>
@@ -6603,7 +7450,7 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>131</v>
@@ -6611,7 +7458,7 @@
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" ht="84" x14ac:dyDescent="0.2">
-      <c r="A32" s="68"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>132</v>
@@ -6619,103 +7466,101 @@
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" s="17" customFormat="1" ht="168" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" s="17" customFormat="1" ht="168" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
+    </row>
+    <row r="37" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="84" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="84" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -6738,13 +7583,13 @@
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1057275</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>2171700</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>47</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
@@ -6788,13 +7633,13 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>1695450</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
@@ -6813,13 +7658,13 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>2295525</xdr:colOff>
-                <xdr:row>47</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>247650</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>2895600</xdr:colOff>
-                <xdr:row>48</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -6835,6 +7680,111 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AADE7FC-9DBE-4C33-8BE5-4346C3EA8EB7}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>606</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>616</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
+        <v>607</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>618</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>608</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>620</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="71" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>622</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="71" t="s">
+        <v>610</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>624</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="71" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="s">
+        <v>613</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;7 Sensitivity: Internal &amp; Restricted</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAD20C8-3D09-40DE-A006-C66B0343AC3F}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -6879,6 +7829,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;7 Sensitivity: Internal &amp; Restricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6921,7 +7875,7 @@
         <v>279</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>222</v>
@@ -6949,7 +7903,7 @@
       <c r="K2" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="29" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6978,7 +7932,7 @@
         <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>214</v>
@@ -7001,7 +7955,7 @@
         <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>215</v>
@@ -7049,7 +8003,7 @@
         <v>151</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>271</v>
@@ -7065,7 +8019,7 @@
       <c r="A9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="29" t="s">
         <v>217</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -7089,7 +8043,7 @@
         <v>200</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -7200,7 +8154,7 @@
         <v>163</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>210</v>
@@ -7368,8 +8322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8060B18-EF82-4F5F-A491-070A7BEDF67B}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7392,32 +8346,38 @@
         <v>347</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="240.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>386</v>
+        <v>630</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>157</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="144.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="192.75" x14ac:dyDescent="0.25">
@@ -7425,7 +8385,7 @@
         <v>169</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
@@ -7433,23 +8393,23 @@
         <v>176</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="228.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="144.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="156.75" x14ac:dyDescent="0.25">
@@ -7457,7 +8417,7 @@
         <v>200</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="120.75" x14ac:dyDescent="0.25">
@@ -7465,7 +8425,7 @@
         <v>207</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="120.75" x14ac:dyDescent="0.25">
@@ -7473,7 +8433,7 @@
         <v>220</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="252.75" x14ac:dyDescent="0.25">
@@ -7481,23 +8441,26 @@
         <v>279</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="72.75" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="84.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>281</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -7506,7 +8469,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="29" t="s">
         <v>217</v>
       </c>
     </row>
@@ -7516,16 +8479,16 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="29" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
@@ -7548,7 +8511,7 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>638175</xdr:rowOff>
               </from>
@@ -7556,7 +8519,7 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1133475</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>1123950</xdr:rowOff>
+                <xdr:rowOff>1181100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7574,14 +8537,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F50BD7-9FB3-424C-8430-3BC761F5FBB7}">
   <dimension ref="A3:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="108.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -7590,716 +8553,716 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="41" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="41" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>484</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>490</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="44"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>497</v>
+      </c>
+      <c r="D16" s="42" t="s">
         <v>498</v>
       </c>
-      <c r="D3" s="59" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="D17" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="F17" s="43"/>
+    </row>
+    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>507</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="E19" s="46"/>
+    </row>
+    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="D20" s="49" t="s">
         <v>508</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="59" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
-        <v>486</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>485</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>487</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
-        <v>484</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>483</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>489</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
-        <v>482</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>481</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>491</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
-        <v>480</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>493</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
-        <v>478</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>477</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>495</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
-        <v>476</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>475</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>496</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>473</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>589</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
-        <v>472</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>471</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>590</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
-        <v>470</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>469</v>
-      </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="62"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="56" t="s">
-        <v>468</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>467</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
+      <c r="E20" s="49" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A23" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>514</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>516</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A25" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>518</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A26" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>520</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A27" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>522</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A28" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A29" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="E29" s="46"/>
+    </row>
+    <row r="30" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A30" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A31" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A32" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>531</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>532</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A34" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>533</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A35" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>535</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>536</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A38" s="38"/>
+      <c r="B38" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A39" s="38"/>
+      <c r="B39" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>540</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>541</v>
+      </c>
+      <c r="E39" s="46"/>
+    </row>
+    <row r="40" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A40" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37" t="s">
         <v>457</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="D41" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A42" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A43" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>546</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A44" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>548</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A45" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A46" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>552</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A47" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D48" s="48" t="s">
+        <v>556</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D49" s="47" t="s">
+        <v>558</v>
+      </c>
+      <c r="E49" s="47" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D50" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="C51" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="D51" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="E51" s="46"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D52" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="E52" s="49" t="s">
         <v>509</v>
       </c>
-      <c r="C15" s="60" t="s">
-        <v>500</v>
-      </c>
-      <c r="D15" s="60" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
-        <v>456</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>502</v>
-      </c>
-      <c r="D16" s="60" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
-        <v>454</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>510</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>504</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>505</v>
-      </c>
-      <c r="F17" s="61"/>
-    </row>
-    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="56" t="s">
-        <v>453</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>452</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>512</v>
-      </c>
-      <c r="D19" s="64" t="s">
+    </row>
+    <row r="53" spans="3:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="D53" s="47" t="s">
+        <v>570</v>
+      </c>
+      <c r="E53" s="47" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="D54" s="48" t="s">
+        <v>572</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="D55" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="E55" s="47" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="D56" s="48" t="s">
         <v>532</v>
       </c>
-      <c r="E19" s="64"/>
-    </row>
-    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
-        <v>451</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>450</v>
-      </c>
-      <c r="D20" s="67" t="s">
-        <v>513</v>
-      </c>
-      <c r="E20" s="67" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A21" s="55" t="s">
-        <v>449</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>448</v>
-      </c>
-      <c r="D21" s="65" t="s">
-        <v>515</v>
-      </c>
-      <c r="E21" s="65" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A22" s="55" t="s">
-        <v>447</v>
-      </c>
-      <c r="B22" s="55" t="s">
-        <v>446</v>
-      </c>
-      <c r="D22" s="66" t="s">
-        <v>517</v>
-      </c>
-      <c r="E22" s="66" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A23" s="55" t="s">
-        <v>445</v>
-      </c>
-      <c r="B23" s="55" t="s">
-        <v>444</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>519</v>
-      </c>
-      <c r="E23" s="65" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
-        <v>443</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>442</v>
-      </c>
-      <c r="D24" s="66" t="s">
-        <v>521</v>
-      </c>
-      <c r="E24" s="66" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A25" s="55" t="s">
-        <v>441</v>
-      </c>
-      <c r="B25" s="55" t="s">
-        <v>440</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>523</v>
-      </c>
-      <c r="E25" s="65" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A26" s="55" t="s">
-        <v>439</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>438</v>
-      </c>
-      <c r="D26" s="66" t="s">
-        <v>525</v>
-      </c>
-      <c r="E26" s="66" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A27" s="55" t="s">
-        <v>437</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>436</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>527</v>
-      </c>
-      <c r="E27" s="65" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A28" s="55" t="s">
-        <v>435</v>
-      </c>
-      <c r="B28" s="55" t="s">
-        <v>434</v>
-      </c>
-      <c r="D28" s="66" t="s">
-        <v>529</v>
-      </c>
-      <c r="E28" s="66" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A29" s="55" t="s">
-        <v>433</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>432</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>533</v>
-      </c>
-      <c r="D29" s="64" t="s">
+      <c r="E56" s="48" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="D57" s="47" t="s">
         <v>534</v>
       </c>
-      <c r="E29" s="64"/>
-    </row>
-    <row r="30" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A30" s="55" t="s">
-        <v>431</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>430</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="67" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="55" t="s">
-        <v>429</v>
-      </c>
-      <c r="B31" s="55" t="s">
-        <v>428</v>
-      </c>
-      <c r="D31" s="65" t="s">
+      <c r="E57" s="47" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D58" s="48" t="s">
         <v>535</v>
       </c>
-      <c r="E31" s="65" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A32" s="55" t="s">
-        <v>427</v>
-      </c>
-      <c r="B32" s="55" t="s">
-        <v>426</v>
-      </c>
-      <c r="D32" s="66" t="s">
-        <v>536</v>
-      </c>
-      <c r="E32" s="66" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A33" s="55" t="s">
-        <v>425</v>
-      </c>
-      <c r="B33" s="55" t="s">
-        <v>531</v>
-      </c>
-      <c r="D33" s="65" t="s">
-        <v>537</v>
-      </c>
-      <c r="E33" s="65" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A34" s="55" t="s">
-        <v>424</v>
-      </c>
-      <c r="B34" s="55" t="s">
-        <v>423</v>
-      </c>
-      <c r="D34" s="66" t="s">
-        <v>538</v>
-      </c>
-      <c r="E34" s="66" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A35" s="55" t="s">
-        <v>422</v>
-      </c>
-      <c r="B35" s="55" t="s">
-        <v>421</v>
-      </c>
-      <c r="D35" s="65" t="s">
-        <v>539</v>
-      </c>
-      <c r="E35" s="65" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="D36" s="66" t="s">
-        <v>540</v>
-      </c>
-      <c r="E36" s="66" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="D37" s="65" t="s">
-        <v>541</v>
-      </c>
-      <c r="E37" s="65" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
-      <c r="B38" s="55" t="s">
-        <v>465</v>
-      </c>
-      <c r="D38" s="66" t="s">
-        <v>543</v>
-      </c>
-      <c r="E38" s="66" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="55" t="s">
-        <v>464</v>
-      </c>
-      <c r="C39" s="63" t="s">
-        <v>545</v>
-      </c>
-      <c r="D39" s="64" t="s">
-        <v>546</v>
-      </c>
-      <c r="E39" s="64"/>
-    </row>
-    <row r="40" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A40" s="55" t="s">
-        <v>451</v>
-      </c>
-      <c r="B40" s="55" t="s">
-        <v>463</v>
-      </c>
-      <c r="D40" s="67" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="67" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55" t="s">
-        <v>462</v>
-      </c>
-      <c r="D41" s="65" t="s">
-        <v>547</v>
-      </c>
-      <c r="E41" s="65" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A42" s="55" t="s">
-        <v>445</v>
-      </c>
-      <c r="B42" s="55" t="s">
-        <v>444</v>
-      </c>
-      <c r="D42" s="66" t="s">
-        <v>549</v>
-      </c>
-      <c r="E42" s="66" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A43" s="55" t="s">
-        <v>443</v>
-      </c>
-      <c r="B43" s="55" t="s">
-        <v>442</v>
-      </c>
-      <c r="D43" s="65" t="s">
-        <v>551</v>
-      </c>
-      <c r="E43" s="65" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A44" s="55" t="s">
-        <v>439</v>
-      </c>
-      <c r="B44" s="55" t="s">
-        <v>438</v>
-      </c>
-      <c r="D44" s="66" t="s">
-        <v>553</v>
-      </c>
-      <c r="E44" s="66" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A45" s="55" t="s">
-        <v>435</v>
-      </c>
-      <c r="B45" s="55" t="s">
-        <v>434</v>
-      </c>
-      <c r="D45" s="65" t="s">
-        <v>555</v>
-      </c>
-      <c r="E45" s="65" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A46" s="55" t="s">
-        <v>461</v>
-      </c>
-      <c r="B46" s="55" t="s">
-        <v>460</v>
-      </c>
-      <c r="D46" s="66" t="s">
-        <v>557</v>
-      </c>
-      <c r="E46" s="66" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A47" s="55" t="s">
-        <v>459</v>
-      </c>
-      <c r="B47" s="55" t="s">
-        <v>458</v>
-      </c>
-      <c r="D47" s="65" t="s">
-        <v>559</v>
-      </c>
-      <c r="E47" s="65" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D48" s="66" t="s">
-        <v>561</v>
-      </c>
-      <c r="E48" s="66" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D49" s="65" t="s">
-        <v>563</v>
-      </c>
-      <c r="E49" s="65" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D50" s="66" t="s">
-        <v>565</v>
-      </c>
-      <c r="E50" s="66" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="C51" s="63" t="s">
-        <v>573</v>
-      </c>
-      <c r="D51" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="E51" s="64"/>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D52" s="67" t="s">
-        <v>513</v>
-      </c>
-      <c r="E52" s="67" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="D53" s="65" t="s">
-        <v>575</v>
-      </c>
-      <c r="E53" s="65" t="s">
+      <c r="E58" s="48" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="D59" s="47" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="54" spans="3:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="D54" s="66" t="s">
+      <c r="E59" s="47" t="s">
         <v>577</v>
       </c>
-      <c r="E54" s="66" t="s">
+    </row>
+    <row r="60" spans="3:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="D60" s="48" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="55" spans="3:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="D55" s="65" t="s">
-        <v>535</v>
-      </c>
-      <c r="E55" s="65" t="s">
+      <c r="E60" s="48" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="56" spans="3:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="D56" s="66" t="s">
-        <v>537</v>
-      </c>
-      <c r="E56" s="66" t="s">
+    <row r="61" spans="3:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="D61" s="47" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="57" spans="3:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="D57" s="65" t="s">
-        <v>539</v>
-      </c>
-      <c r="E57" s="65" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D58" s="66" t="s">
-        <v>540</v>
-      </c>
-      <c r="E58" s="66" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="D59" s="65" t="s">
+      <c r="E61" s="47" t="s">
         <v>581</v>
-      </c>
-      <c r="E59" s="65" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="D60" s="66" t="s">
-        <v>583</v>
-      </c>
-      <c r="E60" s="66" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="D61" s="65" t="s">
-        <v>585</v>
-      </c>
-      <c r="E61" s="65" t="s">
-        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -8329,65 +9292,65 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="45" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="45" style="37"/>
+    <col min="1" max="1" width="44.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="45" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="21" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="41" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>359</v>
-      </c>
     </row>
     <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="25" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8826,16 +9789,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65240E7A-F5AE-43B1-982B-6960E2CAECA0}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="2"/>
-    <col min="2" max="2" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" style="2" bestFit="1" customWidth="1"/>
@@ -8843,216 +9805,254 @@
     <col min="7" max="7" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="25.42578125" style="2"/>
+    <col min="10" max="10" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="70.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="84.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="84.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="25.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B1" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="180" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="72" x14ac:dyDescent="0.2">
+      <c r="C3" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="K1" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="M1" s="47" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="180" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>364</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>365</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>366</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>367</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>368</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.2">
-      <c r="C3" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="36" x14ac:dyDescent="0.2">
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="48" t="s">
+      <c r="N3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="156" x14ac:dyDescent="0.2">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="34" t="s">
         <v>266</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.2">
-      <c r="C5" s="48" t="s">
-        <v>362</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="48"/>
-    </row>
-    <row r="6" spans="1:13" ht="36" x14ac:dyDescent="0.2">
-      <c r="C6" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.2">
+      <c r="C5" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:17" ht="36" x14ac:dyDescent="0.2">
+      <c r="C6" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="48" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="33" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C7" s="48" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C7" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.2">
-      <c r="C8" s="48" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:17" ht="24" x14ac:dyDescent="0.2">
+      <c r="C8" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="48" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="33" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="24" x14ac:dyDescent="0.2">
-      <c r="C9" s="48" t="s">
+    <row r="9" spans="1:17" ht="24" x14ac:dyDescent="0.2">
+      <c r="C9" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="48" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="33" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="36" x14ac:dyDescent="0.2">
-      <c r="C10" s="48" t="s">
+    <row r="10" spans="1:17" ht="36" x14ac:dyDescent="0.2">
+      <c r="C10" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="48" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="33" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C11" s="48" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C11" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="48" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="33" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="48" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="33" t="s">
         <v>257</v>
       </c>
     </row>
@@ -9083,54 +10083,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="50" t="s">
-        <v>409</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>416</v>
+      <c r="B1" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="108" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="168" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -9144,174 +10144,216 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201F09E0-9C45-41F5-80D9-20F3544EFD7B}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.42578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.42578125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.5703125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="0.7109375" style="20" customWidth="1"/>
-    <col min="10" max="10" width="73.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="52.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="28.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.42578125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" style="54" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.42578125" style="54" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" style="54" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" style="54" customWidth="1"/>
+    <col min="10" max="10" width="73.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.28515625" style="54" customWidth="1"/>
+    <col min="12" max="12" width="64" style="54" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E1" s="20" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E1" s="54" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="68" t="s">
+        <v>591</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57" t="s">
+        <v>344</v>
+      </c>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="56"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="K2" s="68" t="s">
+        <v>601</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="53" t="s">
+        <v>595</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="F3" s="59"/>
+      <c r="G3" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="J3" s="51" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="J2" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
-    </row>
-    <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
+      <c r="K3" s="69" t="s">
         <v>602</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="73" t="s">
-        <v>603</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="70" t="s">
-        <v>343</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="39" t="s">
+      <c r="L3" s="70" t="s">
         <v>604</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="J3" s="71" t="s">
-        <v>605</v>
-      </c>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="J4" s="51" t="s">
-        <v>351</v>
-      </c>
-      <c r="K4" s="51" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="36" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="J5" s="51" t="s">
-        <v>353</v>
-      </c>
-      <c r="K5" s="52" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="J6" s="20" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="J4" s="64" t="s">
         <v>598</v>
       </c>
-      <c r="K6" s="20" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="J5" s="64" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="J7" s="20" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="J6" s="54" t="s">
         <v>600</v>
       </c>
-      <c r="K7" s="20" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="22"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="53"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J12" s="69"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="J7" s="54" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="J8" s="65"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;7 Sensitivity: Internal &amp; Restricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/WORKSPACE MURUGAN/selenium reference.xlsx
+++ b/WORKSPACE MURUGAN/selenium reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mu307892\Documents\GitHub\GitHub\WORKSPACE MURUGAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8D575676-02EA-41FF-8DEA-8FE872E7A02A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1D01877D-1DD8-46C2-8D5F-B8592637C6D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8835" tabRatio="943" firstSheet="4" activeTab="10" xr2:uid="{133C5E9F-6BCD-4F68-A2DE-A6F7D4DC11E7}"/>
   </bookViews>
@@ -5307,7 +5307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5512,6 +5512,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6135,16 +6141,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1057275</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>17973</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>134787</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>2171700</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>197689</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>134788</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6255,8 +6261,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1695450</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6310,8 +6316,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>2895600</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>1064558</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6655,8 +6661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B80D94D-7740-4806-A924-1DB3F08BD57C}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -7090,8 +7096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE05448-319A-45C5-8059-1FD4578A7CFE}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.28515625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -7113,13 +7119,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="76" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -7581,16 +7587,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1057275</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>2171700</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
